--- a/人事情報_統合.xlsx
+++ b/人事情報_統合.xlsx
@@ -5,25 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\鈴木　虎太朗\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sekishinkai-my.sharepoint.com/personal/ko-suzuki_sekishinkai_onmicrosoft_com/Documents/デスクトップ/人事情報/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569C1030-624F-4B20-976C-857753C2092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{569C1030-624F-4B20-976C-857753C2092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A488E5BE-E076-4EF2-90BB-417D18946CA3}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="17865" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="2490" windowWidth="17865" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統合" sheetId="4" r:id="rId1"/>
-    <sheet name="2022_人事情報" sheetId="1" r:id="rId2"/>
-    <sheet name="2023_人事情報" sheetId="2" r:id="rId3"/>
-    <sheet name="2024_人事情報" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="246">
   <si>
     <t>年度</t>
   </si>
@@ -3008,1946 +3005,4 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2021</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2021</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2021</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2021</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>2021</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>2021</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>2021</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>2022</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>2022</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>2022</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>2022</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>2022</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>2022</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>2022</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>2022</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>2022</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>2022</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>2022</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>2022</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>2022</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>2022</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>2022</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>2022</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>2022</v>
-      </c>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>2022</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>2022</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>2021</v>
-      </c>
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>2022</v>
-      </c>
-      <c r="B30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>2022</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2022</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2022</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2022</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>2022</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>2022</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>2022</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>2022</v>
-      </c>
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>2022</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>2022</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>2022</v>
-      </c>
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>2023</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>2023</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>2023</v>
-      </c>
-      <c r="B16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>2023</v>
-      </c>
-      <c r="B17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>2023</v>
-      </c>
-      <c r="B18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>2023</v>
-      </c>
-      <c r="B19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>2023</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>2023</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>2023</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>2023</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>2023</v>
-      </c>
-      <c r="B24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>2023</v>
-      </c>
-      <c r="B25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>2023</v>
-      </c>
-      <c r="B26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>2023</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>2023</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" t="s">
-        <v>153</v>
-      </c>
-      <c r="F28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>2023</v>
-      </c>
-      <c r="B29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" t="s">
-        <v>156</v>
-      </c>
-      <c r="F29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>2023</v>
-      </c>
-      <c r="B30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>2023</v>
-      </c>
-      <c r="B31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>2023</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" t="s">
-        <v>166</v>
-      </c>
-      <c r="F32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>2023</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" t="s">
-        <v>169</v>
-      </c>
-      <c r="F33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>2023</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E34" t="s">
-        <v>172</v>
-      </c>
-      <c r="F34" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>2023</v>
-      </c>
-      <c r="B35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>2023</v>
-      </c>
-      <c r="B36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" t="s">
-        <v>178</v>
-      </c>
-      <c r="F36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>2023</v>
-      </c>
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" t="s">
-        <v>179</v>
-      </c>
-      <c r="E37" t="s">
-        <v>180</v>
-      </c>
-      <c r="F37" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>2023</v>
-      </c>
-      <c r="B38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>182</v>
-      </c>
-      <c r="E38" t="s">
-        <v>180</v>
-      </c>
-      <c r="F38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2024</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2024</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2024</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2024</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>2024</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>2024</v>
-      </c>
-      <c r="B7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>2024</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>2024</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>2024</v>
-      </c>
-      <c r="B10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>2024</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>2024</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>2024</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>2024</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" t="s">
-        <v>208</v>
-      </c>
-      <c r="F14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>2024</v>
-      </c>
-      <c r="B15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>214</v>
-      </c>
-      <c r="E15" t="s">
-        <v>215</v>
-      </c>
-      <c r="F15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E16" t="s">
-        <v>218</v>
-      </c>
-      <c r="F16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>2024</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E17" t="s">
-        <v>218</v>
-      </c>
-      <c r="F17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>2024</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" t="s">
-        <v>218</v>
-      </c>
-      <c r="F18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>2024</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>223</v>
-      </c>
-      <c r="E19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>2024</v>
-      </c>
-      <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" t="s">
-        <v>227</v>
-      </c>
-      <c r="F20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>2024</v>
-      </c>
-      <c r="B21" t="s">
-        <v>229</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" t="s">
-        <v>227</v>
-      </c>
-      <c r="F21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>2024</v>
-      </c>
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" t="s">
-        <v>233</v>
-      </c>
-      <c r="F22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>2024</v>
-      </c>
-      <c r="B23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23" t="s">
-        <v>227</v>
-      </c>
-      <c r="F23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>2024</v>
-      </c>
-      <c r="B24" t="s">
-        <v>238</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>239</v>
-      </c>
-      <c r="E24" t="s">
-        <v>227</v>
-      </c>
-      <c r="F24" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>2024</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" t="s">
-        <v>233</v>
-      </c>
-      <c r="F25" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>2024</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" t="s">
-        <v>243</v>
-      </c>
-      <c r="F26" t="s">
-        <v>244</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/人事情報_統合.xlsx
+++ b/人事情報_統合.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\鈴木　虎太朗\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sekishinkai-my.sharepoint.com/personal/ko-suzuki_sekishinkai_onmicrosoft_com/Documents/デスクトップ/人事情報/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF724C9-61F5-4C89-AE46-9DD2EB6E4A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{CAF724C9-61F5-4C89-AE46-9DD2EB6E4A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44A11BAB-946C-425D-A72A-34E487AA4920}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="17865" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,9 +205,6 @@
     <t>髙野 つる代</t>
   </si>
   <si>
-    <t>2024-07-01 00:00:00</t>
-  </si>
-  <si>
     <t>健診 常勤医師</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>山川 佳奈</t>
   </si>
   <si>
-    <t>2024-04-01 00:00:00</t>
-  </si>
-  <si>
     <t>川崎幸病院医療技術部検査科主任 → 検査室主任</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
     <t>齊藤 直美</t>
   </si>
   <si>
-    <t>2024-03-31 00:00:00</t>
-  </si>
-  <si>
     <t>看護科主任</t>
   </si>
   <si>
@@ -277,9 +268,6 @@
     <t>細川 紗帆</t>
   </si>
   <si>
-    <t>2024-02-01 00:00:00</t>
-  </si>
-  <si>
     <t>糖尿病内科医師</t>
   </si>
   <si>
@@ -703,18 +691,12 @@
     <t>大塚 博紀</t>
   </si>
   <si>
-    <t>2022-12-31 00:00:00</t>
-  </si>
-  <si>
     <t>健診センター医師</t>
   </si>
   <si>
     <t>桜田 宏彰</t>
   </si>
   <si>
-    <t>2022-12-16 00:00:00</t>
-  </si>
-  <si>
     <t>神経内科医長 → 副部長</t>
   </si>
   <si>
@@ -763,7 +745,32 @@
     <t>伊沢 潤</t>
   </si>
   <si>
-    <t>2022-01-01 00:00:00</t>
+    <t>2024/4/1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2024/7/1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2024/2/1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2024/3/31</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022/12/31</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022/12/16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022/1/1</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -828,11 +835,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -848,6 +856,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1138,10 +1150,13 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -1174,19 +1189,19 @@
         <v>2024</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1194,19 +1209,19 @@
         <v>2024</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
+        <v>76</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1214,19 +1229,19 @@
         <v>2024</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
       </c>
       <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1234,19 +1249,19 @@
         <v>2024</v>
       </c>
       <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" t="s">
         <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1502,11 +1517,11 @@
       <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" t="s">
         <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -1620,13 +1635,13 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -1634,19 +1649,19 @@
         <v>2024</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -1654,19 +1669,19 @@
         <v>2024</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -1680,13 +1695,13 @@
         <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -1694,19 +1709,19 @@
         <v>2023</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -1714,19 +1729,19 @@
         <v>2023</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1734,19 +1749,19 @@
         <v>2023</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -1754,19 +1769,19 @@
         <v>2023</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1774,19 +1789,19 @@
         <v>2023</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -1794,19 +1809,19 @@
         <v>2023</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -1820,13 +1835,13 @@
         <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -1840,13 +1855,13 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -1860,13 +1875,13 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -1880,13 +1895,13 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -1894,19 +1909,19 @@
         <v>2023</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1920,13 +1935,13 @@
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1940,13 +1955,13 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -1960,13 +1975,13 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1980,13 +1995,13 @@
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -2000,13 +2015,13 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -2014,19 +2029,19 @@
         <v>2023</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F44" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -2040,13 +2055,13 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -2054,19 +2069,19 @@
         <v>2023</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F46" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -2080,13 +2095,13 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F47" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -2100,13 +2115,13 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F48" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -2114,19 +2129,19 @@
         <v>2023</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F49" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -2134,19 +2149,19 @@
         <v>2023</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F50" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -2154,19 +2169,19 @@
         <v>2023</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
         <v>45</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -2174,19 +2189,19 @@
         <v>2023</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F52" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -2200,13 +2215,13 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E53" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -2220,13 +2235,13 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E54" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F54" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -2240,13 +2255,13 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E55" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F55" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -2260,13 +2275,13 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E56" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F56" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -2280,13 +2295,13 @@
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E57" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F57" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -2300,13 +2315,13 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E58" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F58" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -2320,13 +2335,13 @@
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F59" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -2340,13 +2355,13 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E60" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F60" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -2360,13 +2375,13 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E61" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F61" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -2380,13 +2395,13 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E62" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F62" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -2400,13 +2415,13 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F63" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -2414,19 +2429,19 @@
         <v>2022</v>
       </c>
       <c r="B64" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F64" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
@@ -2440,16 +2455,16 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E65" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F65" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H65" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -2463,13 +2478,13 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E66" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F66" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -2483,13 +2498,13 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E67" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F67" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -2503,13 +2518,13 @@
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E68" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F68" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -2523,13 +2538,13 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E69" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F69" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -2537,19 +2552,19 @@
         <v>2022</v>
       </c>
       <c r="B70" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E70" t="s">
+        <v>185</v>
+      </c>
+      <c r="F70" t="s">
         <v>189</v>
-      </c>
-      <c r="F70" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -2563,13 +2578,13 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E71" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F71" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -2583,13 +2598,13 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E72" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F72" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
@@ -2597,19 +2612,19 @@
         <v>2022</v>
       </c>
       <c r="B73" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E73" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F73" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
@@ -2623,13 +2638,13 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E74" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F74" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
@@ -2643,13 +2658,13 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E75" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F75" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
@@ -2657,19 +2672,19 @@
         <v>2022</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E76" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F76" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
@@ -2683,13 +2698,13 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E77" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F77" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
@@ -2703,13 +2718,13 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E78" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F78" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
@@ -2717,19 +2732,19 @@
         <v>2022</v>
       </c>
       <c r="B79" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E79" t="s">
+        <v>208</v>
+      </c>
+      <c r="F79" t="s">
         <v>212</v>
-      </c>
-      <c r="F79" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
@@ -2737,19 +2752,19 @@
         <v>2022</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E80" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F80" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -2763,13 +2778,13 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E81" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F81" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -2783,13 +2798,13 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F82" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -2797,19 +2812,19 @@
         <v>2022</v>
       </c>
       <c r="B83" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E83" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F83" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
@@ -2817,19 +2832,19 @@
         <v>2022</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>226</v>
-      </c>
-      <c r="E84" t="s">
-        <v>227</v>
+        <v>224</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="F84" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -2837,19 +2852,19 @@
         <v>2022</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>229</v>
-      </c>
-      <c r="E85" t="s">
-        <v>230</v>
+        <v>222</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="F85" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -2866,10 +2881,10 @@
         <v>39</v>
       </c>
       <c r="E86" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F86" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
@@ -2883,13 +2898,13 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E87" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F87" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -2897,19 +2912,19 @@
         <v>2021</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E88" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F88" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -2923,13 +2938,13 @@
         <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E89" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F89" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -2943,13 +2958,13 @@
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E90" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F90" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -2963,13 +2978,13 @@
         <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E91" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F91" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -2983,13 +2998,13 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E92" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F92" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
@@ -2997,19 +3012,19 @@
         <v>2021</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>246</v>
-      </c>
-      <c r="E93" t="s">
+        <v>240</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>247</v>
       </c>
       <c r="F93" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/人事情報_統合.xlsx
+++ b/人事情報_統合.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sekishinkai-my.sharepoint.com/personal/ko-suzuki_sekishinkai_onmicrosoft_com/Documents/デスクトップ/人事情報/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sekishinkai-my.sharepoint.com/personal/ko-suzuki_sekishinkai_onmicrosoft_com/Documents/デスクトップ/人事情報（※サイト表示用フォルダ）/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{CAF724C9-61F5-4C89-AE46-9DD2EB6E4A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44A11BAB-946C-425D-A72A-34E487AA4920}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{CAF724C9-61F5-4C89-AE46-9DD2EB6E4A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7A5195B-563F-4F55-835E-1A78FA3A7346}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="17865" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="3015" windowWidth="17865" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統合" sheetId="1" r:id="rId1"/>
@@ -304,9 +304,6 @@
     <t>常勤医師</t>
   </si>
   <si>
-    <t>三好 由</t>
-  </si>
-  <si>
     <t>百瀬 敏光</t>
   </si>
   <si>
@@ -601,12 +598,6 @@
     <t>放射線治療科医師</t>
   </si>
   <si>
-    <t>金原 嘉之</t>
-  </si>
-  <si>
-    <t>森島 政和</t>
-  </si>
-  <si>
     <t>2023/1/15</t>
   </si>
   <si>
@@ -692,9 +683,6 @@
   </si>
   <si>
     <t>健診センター医師</t>
-  </si>
-  <si>
-    <t>桜田 宏彰</t>
   </si>
   <si>
     <t>神経内科医長 → 副部長</t>
@@ -770,6 +758,25 @@
   </si>
   <si>
     <t>2022/1/1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>埼玉石心会病院</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>森島 政和</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>立川新緑クリニック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>桝田 宏彰</t>
+    <rPh sb="0" eb="2">
+      <t>マスダ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -856,10 +863,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1149,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1198,7 +1201,7 @@
         <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
         <v>74</v>
@@ -1218,7 +1221,7 @@
         <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F3" t="s">
         <v>77</v>
@@ -1238,7 +1241,7 @@
         <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -1258,7 +1261,7 @@
         <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -1518,7 +1521,7 @@
         <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F18" t="s">
         <v>61</v>
@@ -1638,7 +1641,7 @@
         <v>81</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F24" t="s">
         <v>82</v>
@@ -1658,7 +1661,7 @@
         <v>69</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F25" t="s">
         <v>70</v>
@@ -1678,7 +1681,7 @@
         <v>79</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F26" t="s">
         <v>80</v>
@@ -1789,19 +1792,19 @@
         <v>2023</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>244</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
         <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -1809,19 +1812,19 @@
         <v>2023</v>
       </c>
       <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
         <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" t="s">
-        <v>98</v>
       </c>
       <c r="E33" t="s">
         <v>84</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -1835,13 +1838,13 @@
         <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
         <v>84</v>
       </c>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -1855,13 +1858,13 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
         <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -1875,13 +1878,13 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E36" t="s">
         <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -1895,13 +1898,13 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>84</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -1909,19 +1912,19 @@
         <v>2023</v>
       </c>
       <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
         <v>108</v>
-      </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>109</v>
       </c>
       <c r="E38" t="s">
         <v>84</v>
       </c>
       <c r="F38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1935,13 +1938,13 @@
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
         <v>84</v>
       </c>
       <c r="F39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1955,13 +1958,13 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>84</v>
       </c>
       <c r="F40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -1975,13 +1978,13 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41" t="s">
         <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1995,13 +1998,13 @@
         <v>45</v>
       </c>
       <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" t="s">
         <v>117</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>118</v>
-      </c>
-      <c r="F42" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -2015,13 +2018,13 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" t="s">
         <v>120</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>121</v>
-      </c>
-      <c r="F43" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -2029,19 +2032,19 @@
         <v>2023</v>
       </c>
       <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
         <v>123</v>
       </c>
-      <c r="C44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>124</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>125</v>
-      </c>
-      <c r="F44" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -2055,13 +2058,13 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" t="s">
         <v>127</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>128</v>
-      </c>
-      <c r="F45" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -2078,10 +2081,10 @@
         <v>79</v>
       </c>
       <c r="E46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" t="s">
         <v>130</v>
-      </c>
-      <c r="F46" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -2095,13 +2098,13 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" t="s">
         <v>132</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>133</v>
-      </c>
-      <c r="F47" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -2115,13 +2118,13 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" t="s">
         <v>135</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>136</v>
-      </c>
-      <c r="F48" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -2129,19 +2132,19 @@
         <v>2023</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
       </c>
       <c r="D49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" t="s">
         <v>139</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>140</v>
-      </c>
-      <c r="F49" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -2155,10 +2158,10 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" t="s">
         <v>142</v>
-      </c>
-      <c r="E50" t="s">
-        <v>143</v>
       </c>
       <c r="F50" t="s">
         <v>93</v>
@@ -2175,13 +2178,13 @@
         <v>45</v>
       </c>
       <c r="D51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" t="s">
         <v>144</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>145</v>
-      </c>
-      <c r="F51" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -2189,19 +2192,19 @@
         <v>2023</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -2215,13 +2218,13 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" t="s">
         <v>148</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>149</v>
-      </c>
-      <c r="F53" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -2235,13 +2238,13 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" t="s">
         <v>151</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>152</v>
-      </c>
-      <c r="F54" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -2255,13 +2258,13 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F55" t="s">
         <v>154</v>
-      </c>
-      <c r="E55" t="s">
-        <v>152</v>
-      </c>
-      <c r="F55" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -2275,13 +2278,13 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" t="s">
         <v>156</v>
-      </c>
-      <c r="E56" t="s">
-        <v>152</v>
-      </c>
-      <c r="F56" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -2295,13 +2298,13 @@
         <v>18</v>
       </c>
       <c r="D57" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" t="s">
         <v>158</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>159</v>
-      </c>
-      <c r="F57" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -2315,13 +2318,13 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" t="s">
+        <v>158</v>
+      </c>
+      <c r="F58" t="s">
         <v>161</v>
-      </c>
-      <c r="E58" t="s">
-        <v>159</v>
-      </c>
-      <c r="F58" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -2335,13 +2338,13 @@
         <v>18</v>
       </c>
       <c r="D59" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" t="s">
+        <v>158</v>
+      </c>
+      <c r="F59" t="s">
         <v>163</v>
-      </c>
-      <c r="E59" t="s">
-        <v>159</v>
-      </c>
-      <c r="F59" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -2355,13 +2358,13 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" t="s">
+        <v>158</v>
+      </c>
+      <c r="F60" t="s">
         <v>165</v>
-      </c>
-      <c r="E60" t="s">
-        <v>159</v>
-      </c>
-      <c r="F60" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -2375,13 +2378,13 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -2395,13 +2398,13 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
+        <v>167</v>
+      </c>
+      <c r="E62" t="s">
+        <v>158</v>
+      </c>
+      <c r="F62" t="s">
         <v>168</v>
-      </c>
-      <c r="E62" t="s">
-        <v>159</v>
-      </c>
-      <c r="F62" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -2415,13 +2418,13 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -2429,19 +2432,19 @@
         <v>2022</v>
       </c>
       <c r="B64" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
         <v>171</v>
       </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
+        <v>158</v>
+      </c>
+      <c r="F64" t="s">
         <v>172</v>
-      </c>
-      <c r="E64" t="s">
-        <v>159</v>
-      </c>
-      <c r="F64" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
@@ -2455,16 +2458,16 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" t="s">
         <v>174</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
+        <v>165</v>
+      </c>
+      <c r="H65" t="s">
         <v>175</v>
-      </c>
-      <c r="F65" t="s">
-        <v>166</v>
-      </c>
-      <c r="H65" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -2478,13 +2481,13 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -2498,13 +2501,13 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" t="s">
         <v>178</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>179</v>
-      </c>
-      <c r="F67" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -2518,13 +2521,13 @@
         <v>18</v>
       </c>
       <c r="D68" t="s">
+        <v>180</v>
+      </c>
+      <c r="E68" t="s">
         <v>181</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>182</v>
-      </c>
-      <c r="F68" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -2538,13 +2541,13 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
+        <v>183</v>
+      </c>
+      <c r="E69" t="s">
         <v>184</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>185</v>
-      </c>
-      <c r="F69" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -2552,19 +2555,19 @@
         <v>2022</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
       </c>
       <c r="D70" t="s">
+        <v>187</v>
+      </c>
+      <c r="E70" t="s">
+        <v>184</v>
+      </c>
+      <c r="F70" t="s">
         <v>188</v>
-      </c>
-      <c r="E70" t="s">
-        <v>185</v>
-      </c>
-      <c r="F70" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -2578,13 +2581,13 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -2598,13 +2601,13 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
+        <v>190</v>
+      </c>
+      <c r="E72" t="s">
+        <v>184</v>
+      </c>
+      <c r="F72" t="s">
         <v>191</v>
-      </c>
-      <c r="E72" t="s">
-        <v>185</v>
-      </c>
-      <c r="F72" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
@@ -2612,19 +2615,19 @@
         <v>2022</v>
       </c>
       <c r="B73" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="E73" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F73" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
@@ -2638,13 +2641,13 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E74" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F74" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
@@ -2658,13 +2661,13 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E75" t="s">
+        <v>195</v>
+      </c>
+      <c r="F75" t="s">
         <v>198</v>
-      </c>
-      <c r="F75" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
@@ -2672,19 +2675,19 @@
         <v>2022</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E76" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F76" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
@@ -2698,13 +2701,13 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E77" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F77" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
@@ -2718,13 +2721,13 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E78" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F78" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
@@ -2732,19 +2735,19 @@
         <v>2022</v>
       </c>
       <c r="B79" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E79" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F79" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
@@ -2758,13 +2761,13 @@
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E80" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F80" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -2778,13 +2781,13 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E81" t="s">
+        <v>211</v>
+      </c>
+      <c r="F81" t="s">
         <v>214</v>
-      </c>
-      <c r="F81" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -2798,13 +2801,13 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E82" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F82" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -2812,19 +2815,19 @@
         <v>2022</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E83" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
@@ -2838,13 +2841,13 @@
         <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F84" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -2858,13 +2861,13 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F85" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -2881,10 +2884,10 @@
         <v>39</v>
       </c>
       <c r="E86" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F86" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
@@ -2898,13 +2901,13 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E87" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F87" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -2918,13 +2921,13 @@
         <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E88" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F88" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -2938,13 +2941,13 @@
         <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E89" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F89" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -2958,13 +2961,13 @@
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E90" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F90" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -2978,13 +2981,13 @@
         <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E91" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F91" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -2998,13 +3001,13 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E92" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
@@ -3012,19 +3015,19 @@
         <v>2021</v>
       </c>
       <c r="B93" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F93" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
